--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H2">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>193.7951639895219</v>
+        <v>353.6328482990636</v>
       </c>
       <c r="R2">
-        <v>193.7951639895219</v>
+        <v>3182.695634691573</v>
       </c>
       <c r="S2">
-        <v>0.004842788251369559</v>
+        <v>0.008350356079208421</v>
       </c>
       <c r="T2">
-        <v>0.004842788251369559</v>
+        <v>0.008350356079208421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H3">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>168.5995670019876</v>
+        <v>287.357989311393</v>
       </c>
       <c r="R3">
-        <v>168.5995670019876</v>
+        <v>2586.221903802537</v>
       </c>
       <c r="S3">
-        <v>0.00421317016098176</v>
+        <v>0.006785403404963759</v>
       </c>
       <c r="T3">
-        <v>0.00421317016098176</v>
+        <v>0.006785403404963759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H4">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>24.47391416866981</v>
+        <v>42.82483710071233</v>
       </c>
       <c r="R4">
-        <v>24.47391416866981</v>
+        <v>385.423533906411</v>
       </c>
       <c r="S4">
-        <v>0.0006115838061236109</v>
+        <v>0.001011225740326653</v>
       </c>
       <c r="T4">
-        <v>0.0006115838061236109</v>
+        <v>0.001011225740326653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H5">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>18957.3022416645</v>
+        <v>20579.79411061256</v>
       </c>
       <c r="R5">
-        <v>18957.3022416645</v>
+        <v>185218.1469955131</v>
       </c>
       <c r="S5">
-        <v>0.4737280264566272</v>
+        <v>0.4859520536256311</v>
       </c>
       <c r="T5">
-        <v>0.4737280264566272</v>
+        <v>0.4859520536256312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H6">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>16492.6352323387</v>
+        <v>16722.90423390437</v>
       </c>
       <c r="R6">
-        <v>16492.6352323387</v>
+        <v>150506.1381051393</v>
       </c>
       <c r="S6">
-        <v>0.4121379424184801</v>
+        <v>0.3948790552214472</v>
       </c>
       <c r="T6">
-        <v>0.4121379424184801</v>
+        <v>0.3948790552214472</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H7">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>2394.07103036438</v>
+        <v>2492.207199054805</v>
       </c>
       <c r="R7">
-        <v>2394.07103036438</v>
+        <v>22429.86479149324</v>
       </c>
       <c r="S7">
-        <v>0.05982594622133965</v>
+        <v>0.0588486551387183</v>
       </c>
       <c r="T7">
-        <v>0.05982594622133965</v>
+        <v>0.0588486551387183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>894.8625301789168</v>
+        <v>967.4321415548875</v>
       </c>
       <c r="R8">
-        <v>894.8625301789168</v>
+        <v>8706.889273993989</v>
       </c>
       <c r="S8">
-        <v>0.02236190861798598</v>
+        <v>0.02284403980939761</v>
       </c>
       <c r="T8">
-        <v>0.02236190861798598</v>
+        <v>0.02284403980939762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>778.5201240760885</v>
+        <v>786.12424250059</v>
       </c>
       <c r="R9">
-        <v>778.5201240760885</v>
+        <v>7075.118182505309</v>
       </c>
       <c r="S9">
-        <v>0.01945460367903866</v>
+        <v>0.0185628042727141</v>
       </c>
       <c r="T9">
-        <v>0.01945460367903866</v>
+        <v>0.0185628042727141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>113.009985933094</v>
+        <v>117.1557565066589</v>
       </c>
       <c r="R10">
-        <v>113.009985933094</v>
+        <v>1054.40180855993</v>
       </c>
       <c r="S10">
-        <v>0.002824030388053528</v>
+        <v>0.002766406707592698</v>
       </c>
       <c r="T10">
-        <v>0.002824030388053528</v>
+        <v>0.002766406707592698</v>
       </c>
     </row>
   </sheetData>
